--- a/_resources/links1.xlsx
+++ b/_resources/links1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dxenu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dxenu\Desktop\box\talaikis.com_react\_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E52D19-73C1-4A09-ABC8-453505427EA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1563AF-C2D6-4E8F-9526-BE10A9279F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
   <si>
     <t>S.N</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>EVxEuP</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>baigta situo</t>
   </si>
 </sst>
 </file>
@@ -675,6 +681,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,8 +696,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1099,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,16 +1125,16 @@
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1148,16 +1154,16 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1177,16 +1183,16 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1273,7 +1279,9 @@
       <c r="I5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1402,7 +1410,9 @@
       <c r="I8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3457,7 +3467,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="35"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3487,10 +3497,10 @@
       <c r="F58" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I58" s="5"/>
